--- a/Reservas.xlsx
+++ b/Reservas.xlsx
@@ -1,82 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kako/Library/Mobile Documents/com~apple~CloudDocs/WorkSpace/GitHub/Mundo1-MC-Python/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE46A96-ABDA-FE47-B957-3D69E316E239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>TECNICO</t>
-  </si>
-  <si>
-    <t>FERRAMENTA</t>
-  </si>
-  <si>
-    <t>DT-RESERVA</t>
-  </si>
-  <si>
-    <t>DT-DEVOLUCAO</t>
-  </si>
-  <si>
-    <t>jefferson</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>2022-12-10 12:32:49</t>
-  </si>
-  <si>
-    <t>2022-12-04 12:32:53</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFffffff"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF7030a0"/>
       </patternFill>
     </fill>
   </fills>
@@ -90,16 +54,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -107,25 +71,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -134,10 +163,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -175,69 +204,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -261,54 +292,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -318,7 +348,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -327,7 +357,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -336,7 +366,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -344,10 +374,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -376,7 +406,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -389,13 +419,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -413,49 +442,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col width="7.719285714285714" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="11.71928571428571" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TECNICO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FERRAMENTA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DT-RESERVA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DT-DEVOLUCAO</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="n"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>jefferson</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2022-12-10 12:32:49</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2022-12-04 12:32:53</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Teste 2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Camera 3</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>2022-12-04 13:46:17</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>2022-12-05 13:46:19</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TEste r</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Caneta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022-12-04 16:59:54</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2022-12-15 16:59:56</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reservas.xlsx
+++ b/Reservas.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,28 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2022-12-04 17:40:12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2022-12-04 17:40:13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reservas.xlsx
+++ b/Reservas.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reservas.xlsx
+++ b/Reservas.xlsx
@@ -1,115 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kako/Library/Mobile Documents/com~apple~CloudDocs/WorkSpace/GitHub/Mundo1-MC-Python/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0961DD0B-8966-444F-A06A-522B30256096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
-  <si>
-    <t>TECNICO</t>
-  </si>
-  <si>
-    <t>FERRAMENTA</t>
-  </si>
-  <si>
-    <t>DT-RESERVA</t>
-  </si>
-  <si>
-    <t>DT-DEVOLUCAO</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>2022-12-10 12:32:49</t>
-  </si>
-  <si>
-    <t>2022-12-04 12:32:53</t>
-  </si>
-  <si>
-    <t>2022-12-04 13:46:17</t>
-  </si>
-  <si>
-    <t>2022-12-05 13:46:19</t>
-  </si>
-  <si>
-    <t>2022-12-04 16:59:54</t>
-  </si>
-  <si>
-    <t>2022-12-15 16:59:56</t>
-  </si>
-  <si>
-    <t>2022-12-04 17:40:12</t>
-  </si>
-  <si>
-    <t>2022-12-04 17:40:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raquel </t>
-  </si>
-  <si>
-    <t>Raul</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Maysa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Lucas </t>
-  </si>
-  <si>
-    <t>Davi</t>
-  </si>
-  <si>
-    <t>Lucas Gabriel</t>
-  </si>
-  <si>
-    <t>Ana Lívia</t>
-  </si>
-  <si>
-    <t>Alícia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,24 +72,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -453,164 +436,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col width="11.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="17.6640625" bestFit="1" customWidth="1" min="3" max="4"/>
+    <col width="12.5" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TECNICO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FERRAMENTA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DT-RESERVA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DT-DEVOLUCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raquel </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2022-12-10 12:32:49</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2022-12-04 12:32:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Raul</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2022-12-04 13:46:17</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2022-12-05 13:46:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maysa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022-12-04 16:59:54</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2022-12-15 16:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pedro Lucas </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2022-12-04 17:40:12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2022-12-04 17:40:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Davi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2022-12-10 12:32:49</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2022-12-04 12:32:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lucas Gabriel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2022-12-04 13:46:17</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2022-12-05 13:46:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ana Lívia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2022-12-04 16:59:54</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2022-12-15 16:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Alícia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2022-12-04 17:40:12</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2022-12-04 17:40:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022-12-04 16:59:54</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2022-12-15 16:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reservas.xlsx
+++ b/Reservas.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -675,7 +675,183 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jefferson</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2022-12-04 23:39:50</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2022-12-05 23:39:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jefferson</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2022-12-04 23:44:24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2022-12-12 23:44:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jefferson</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2022-12-04 23:49:10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2022-12-12 23:49:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jefferson teste</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2022-12-05 00:04:25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2022-12-12 00:04:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Paulo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Filmadora</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2022-12-05 00:28:41</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2022-12-07 00:28:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jefferson</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Filmadora</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2022-12-05 00:36:36</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2022-12-08 00:36:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tripe</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2022-12-05 00:43:42</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2022-12-08 00:43:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>jefferson</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2022-12-05 00:51:44</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2022-12-09 00:51:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="19"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
